--- a/data/processed/Pesos_Shanusi/__bbdd_revision_Shanusi__Incrementos_Pesos.xlsx
+++ b/data/processed/Pesos_Shanusi/__bbdd_revision_Shanusi__Incrementos_Pesos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Pesos_Shanusi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD740426-D7BE-400C-A0C7-DB65ED1D07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16526184-E7C1-437C-A79A-9F53D2E6C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fff" sheetId="1" r:id="rId1"/>
@@ -417,14 +417,14 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4711,7 +4711,7 @@
       <c r="R74" s="12">
         <v>8.2090679499459082E-4</v>
       </c>
-      <c r="T74" s="26">
+      <c r="T74" s="27">
         <v>0.32</v>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       <c r="R75" s="12">
         <v>1</v>
       </c>
-      <c r="T75" s="27"/>
+      <c r="T75" s="28"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
@@ -4899,9 +4899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2BC099-D1C1-459C-A18F-BB9AADBD5D8E}">
   <dimension ref="B1:V76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73:B76"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9275,8 +9275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FE723-5428-4FBD-B736-D181949370D5}">
   <dimension ref="B1:U74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13341,7 +13341,7 @@
       <c r="E68" s="12">
         <v>1.6518595372699485E-4</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="26">
         <v>3.8951027232684375E-6</v>
       </c>
       <c r="G68" s="12">
@@ -13350,10 +13350,10 @@
       <c r="H68" s="12">
         <v>6.9481335644636598E-4</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="26">
         <v>2.11027300292239E-5</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="26">
         <v>7.0276636323729998E-5</v>
       </c>
       <c r="K68" s="12">
@@ -13365,7 +13365,7 @@
       <c r="M68" s="12">
         <v>1.4968156528599456E-4</v>
       </c>
-      <c r="N68" s="28">
+      <c r="N68" s="26">
         <v>1.3068561711252882E-5</v>
       </c>
       <c r="O68" s="12">
